--- a/results/ElasticNet.xlsx
+++ b/results/ElasticNet.xlsx
@@ -495,26 +495,23 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91c7468640&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.1,
-                                                                 max_iter=1000,
-                                                                 penalty='elasticnet',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    n_estimators=10, random_state=42))])</t>
+                 LogisticRegression(l1_ratio=0.7, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.675</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91244bc250&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -523,44 +520,43 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 0 0 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6403210023268138</v>
+        <v>0.7226190422428765</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09259510926561515</v>
+        <v>0.02060886693193312</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5771007038712921</v>
+        <v>0.5708267950731186</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1212835179341145</v>
+        <v>0.1195666986043687</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f84bc13a220&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.01,
-                                                                 max_iter=1000,
-                                                                 penalty='elasticnet',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    random_state=42))])</t>
+                 LogisticRegression(l1_ratio=0.95, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7102941176470587</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f84bc13a280&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -580,92 +576,85 @@
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6200692750874723</v>
+        <v>0.7206601951574058</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1276651807959677</v>
+        <v>0.01863472491005711</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5840976552858905</v>
+        <v>0.6459373316634346</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1453575871855953</v>
+        <v>0.1097797140122413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.001,
-                                                                 max_iter=1000,
-                                                                 penalty='elasticnet',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7186624649859944</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5565892096759216</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1238284137601524</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5276599165540342</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1306490699870561</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.001,
-                                                                 max_iter=1000,
-                                                                 penalty='elasticnet',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    random_state=42))])</t>
+                 LogisticRegression(l1_ratio=0.7, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7296078431372548</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7777777777777777</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7176654084892338</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02092927649931291</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6611737738024502</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08846323748931456</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 LogisticRegression(l1_ratio=0.3, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7839379084967321</v>
+        <v>0.7841830065359476</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.3, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -685,16 +674,16 @@
         <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6874354218330191</v>
+        <v>0.7314862579019984</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08586573297021793</v>
+        <v>0.01586547553482015</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6928471606824548</v>
+        <v>0.7022387103637104</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1079292773490324</v>
+        <v>0.08565157848675527</v>
       </c>
     </row>
   </sheetData>

--- a/results/ElasticNet.xlsx
+++ b/results/ElasticNet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,92 +451,122 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 LogisticRegression(l1_ratio=0.7, max_iter=1000,
-                                    penalty='elasticnet', random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.95,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.675</v>
+        <v>0.6004761904761905</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': None}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 0 1 0 0 1]</t>
-        </is>
+        <v>0.7060911715132402</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5508879546379546</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7727272727272727</v>
       </c>
       <c r="G2" t="n">
+        <v>0.658559013431942</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5475314153439154</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7962301587301587</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7226190422428765</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02060886693193312</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5708267950731186</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1195666986043687</v>
       </c>
     </row>
     <row r="3">
@@ -544,48 +574,60 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f84bc13a220&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58723c160&gt;),
                 ('model',
-                 LogisticRegression(l1_ratio=0.95, max_iter=1000,
-                                    penalty='elasticnet', random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.01,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.5771428571428572</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f84bc13a280&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58722af10&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.01, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.6965802274313946</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5314406658156657</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6956521739130435</v>
       </c>
       <c r="G3" t="n">
+        <v>0.68167516409576</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4948495370370371</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7388020833333333</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7206601951574058</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01863472491005711</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6459373316634346</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1097797140122413</v>
       </c>
     </row>
     <row r="4">
@@ -593,48 +635,60 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58722af40&gt;),
                 ('model',
-                 LogisticRegression(l1_ratio=0.7, max_iter=1000,
-                                    penalty='elasticnet', random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.1,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7296078431372548</v>
+        <v>0.5695238095238095</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd586fb0fd0&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.1, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
-        </is>
+        <v>0.6861869258981556</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4950939454064454</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5909090909090908</v>
       </c>
       <c r="G4" t="n">
+        <v>0.6841178586910491</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5054414682539683</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6947916666666667</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5091666666666667</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7176654084892338</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02092927649931291</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6611737738024502</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.08846323748931456</v>
       </c>
     </row>
     <row r="5">
@@ -642,48 +696,121 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd586fb0a00&gt;),
                 ('model',
-                 LogisticRegression(l1_ratio=0.3, max_iter=1000,
-                                    penalty='elasticnet', random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.95,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7841830065359476</v>
+        <v>0.7808333333333333</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.3, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5871d72e0&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.7079136418993711</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6032895114145114</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.55</v>
       </c>
       <c r="G5" t="n">
+        <v>0.6682680302774188</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5695122354497354</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7925595238095239</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7004166666666666</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.7314862579019984</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01586547553482015</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7022387103637104</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.08565157848675527</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5871d7280&gt;),
+                ('model',
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.5,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6866666666666668</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5871d7670&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.5, 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.775558231363358</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6353811466311465</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5714285714285713</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.740178670251466</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5693716931216931</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8401515151515152</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 0 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/ElasticNet.xlsx
+++ b/results/ElasticNet.xlsx
@@ -513,56 +513,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f6ae490&gt;),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.95,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(l1_ratio=0.7, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6004761904761905</v>
+        <v>0.7285714285714284</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f537b20&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7060911715132402</v>
+        <v>0.7030254444431433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5508879546379546</v>
+        <v>0.6415745712620712</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.658559013431942</v>
+        <v>0.6766131624076245</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5475314153439154</v>
+        <v>0.6188425925925926</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7962301587301587</v>
+        <v>0.7644060283687942</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6229166666666667</v>
+        <v>0.7086805555555555</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7727272727272727</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 1 1 0 0 1 0 0 1 1 1 0 0 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 0 0 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -574,117 +576,117 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58723c160&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f537040&gt;),
+                ('model',
+                 LogisticRegression(l1_ratio=0.95, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7154761904761904</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f537970&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6974039380237601</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5698129532504531</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6734361846925557</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6046288029100528</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7523492907801419</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5895833333333332</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f537940&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced', l1_ratio=0.01,
                                     max_iter=1000, penalty='elasticnet',
                                     random_state=42, solver='saga'))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.5771428571428572</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58722af10&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.01, 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6965802274313946</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5314406658156657</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.68167516409576</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4948495370370371</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7388020833333333</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6083333333333333</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58722af40&gt;),
-                ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.1,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.5695238095238095</v>
+        <v>0.678124098124098</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd586fb0fd0&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.1, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f53bc10&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.01, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6861869258981556</v>
+        <v>0.6759563493888675</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4950939454064454</v>
+        <v>0.5868948875198875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5909090909090908</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6841178586910491</v>
+        <v>0.6779862284556121</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5054414682539683</v>
+        <v>0.6209151785714285</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6947916666666667</v>
+        <v>0.6875</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5091666666666667</v>
+        <v>0.5979166666666667</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 1 0 1 0]</t>
+          <t>[0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -696,56 +698,56 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd586fb0a00&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f53bb80&gt;),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.95,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(l1_ratio=0.5, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7808333333333333</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5871d72e0&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f53b430&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.5, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7079136418993711</v>
+        <v>0.7143924393270283</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6032895114145114</v>
+        <v>0.658300992988493</v>
       </c>
       <c r="F5" t="n">
-        <v>0.55</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6682680302774188</v>
+        <v>0.6772385259720881</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5695122354497354</v>
+        <v>0.6225231481481481</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7925595238095239</v>
+        <v>0.7948979591836736</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7004166666666666</v>
+        <v>0.7531249999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -757,56 +759,56 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5871d7280&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f53b310&gt;),
                 ('model',
-                 LogisticRegression(class_weight='balanced', l1_ratio=0.5,
-                                    max_iter=1000, penalty='elasticnet',
-                                    random_state=42, solver='saga'))])</t>
+                 LogisticRegression(l1_ratio=0.5, max_iter=1000,
+                                    penalty='elasticnet', random_state=42,
+                                    solver='saga'))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6866666666666668</v>
+        <v>0.7416666666666666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5871d7670&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.5, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f775e20&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.5, 'model__class_weight': None}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.775558231363358</v>
+        <v>0.7697580797446871</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6353811466311465</v>
+        <v>0.6596079846079845</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5714285714285713</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.740178670251466</v>
+        <v>0.732290848301124</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5693716931216931</v>
+        <v>0.6331068121693122</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8401515151515152</v>
+        <v>0.8368589743589743</v>
       </c>
       <c r="K6" t="n">
-        <v>0.75</v>
+        <v>0.7288194444444445</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 0 1 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/ElasticNet.xlsx
+++ b/results/ElasticNet.xlsx
@@ -515,47 +515,47 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f6ae490&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 LogisticRegression(l1_ratio=0.7, max_iter=1000,
-                                    penalty='elasticnet', random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.5,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7285714285714284</v>
+        <v>0.6445565545565545</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f537b20&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.7, 'model__class_weight': None}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.5, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7030254444431433</v>
+        <v>0.6731902416603736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6415745712620712</v>
+        <v>0.6055782412032412</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6766131624076245</v>
+        <v>0.7353542007662698</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6188425925925926</v>
+        <v>0.6564484126984128</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7644060283687942</v>
+        <v>0.6220744680851064</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7086805555555555</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 0 1 0 0 1 1 1 0 0 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -576,47 +576,47 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f537040&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f17783deee0&gt;),
                 ('model',
-                 LogisticRegression(l1_ratio=0.95, max_iter=1000,
-                                    penalty='elasticnet', random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.1,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7154761904761904</v>
+        <v>0.5828282828282828</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f537970&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.95, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f17783dc2e0&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.1, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6974039380237601</v>
+        <v>0.6682811777152707</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5698129532504531</v>
+        <v>0.4878713416213416</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6734361846925557</v>
+        <v>0.7280682840970768</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6046288029100528</v>
+        <v>0.6339583333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7523492907801419</v>
+        <v>0.6197695035460993</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5895833333333332</v>
+        <v>0.4159722222222222</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 0 1 1 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -637,7 +637,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f537940&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f17783dcfd0&gt;),
                 ('model',
                  LogisticRegression(class_weight='balanced', l1_ratio=0.01,
                                     max_iter=1000, penalty='elasticnet',
@@ -649,32 +649,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f53bc10&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.01, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f177841bac0&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.01, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6759563493888675</v>
+        <v>0.658301352095244</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5868948875198875</v>
+        <v>0.561356721981722</v>
       </c>
       <c r="F4" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6779862284556121</v>
+        <v>0.7221039912805383</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6209151785714285</v>
+        <v>0.6739484126984125</v>
       </c>
       <c r="I4" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6875</v>
+        <v>0.6057407407407407</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5979166666666667</v>
+        <v>0.5091666666666667</v>
       </c>
       <c r="L4" t="n">
         <v>0.4210526315789473</v>
@@ -698,47 +698,48 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f53bb80&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 LogisticRegression(l1_ratio=0.5, max_iter=1000,
-                                    penalty='elasticnet', random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.5,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.6424741924741924</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f53b430&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.5, 'model__class_weight': None}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.5, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7143924393270283</v>
+        <v>0.6769280689154774</v>
       </c>
       <c r="E5" t="n">
-        <v>0.658300992988493</v>
+        <v>0.5845659664409664</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6772385259720881</v>
+        <v>0.735641343965263</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6225231481481481</v>
+        <v>0.6379828042328042</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7948979591836736</v>
+        <v>0.6292517006802721</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7531249999999999</v>
+        <v>0.5743055555555555</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -747,7 +748,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 0 1 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -759,47 +760,47 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f53b310&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f177841b460&gt;),
                 ('model',
-                 LogisticRegression(l1_ratio=0.5, max_iter=1000,
-                                    penalty='elasticnet', random_state=42,
-                                    solver='saga'))])</t>
+                 LogisticRegression(class_weight='balanced', l1_ratio=0.5,
+                                    max_iter=1000, penalty='elasticnet',
+                                    random_state=42, solver='saga'))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7416666666666666</v>
+        <v>0.7176845376845377</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f775e20&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.5, 'model__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f17782eee80&gt;, 'scaler': MinMaxScaler(), 'model__solver': 'saga', 'model__penalty': 'elasticnet', 'model__l1_ratio': 0.5, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7697580797446871</v>
+        <v>0.7553392646378311</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6596079846079845</v>
+        <v>0.6077489639989641</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G6" t="n">
-        <v>0.732290848301124</v>
+        <v>0.7992066077896293</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6331068121693122</v>
+        <v>0.6583779761904762</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8368589743589743</v>
+        <v>0.7174679487179487</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7288194444444445</v>
+        <v>0.5861111111111111</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -808,7 +809,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
